--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1158706.45480572</v>
+        <v>-1160631.058372577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155033</v>
+        <v>3180051.965155031</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>182.9819425546897</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>30.55077100092539</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.15943448672118</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>10.50872458243505</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.6773952840984085</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>293.432489761349</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.93452779272218</v>
+        <v>14.93452779272217</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3845405971695</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.484011504269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>341.8733101690322</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>341.8733101690322</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>13.98111134852452</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923671</v>
       </c>
       <c r="S6" t="n">
-        <v>168.023804751134</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>71.35394585385185</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.1662431383134</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086313</v>
+        <v>3.080181780086122</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>72.33162581571365</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>64.28136179030079</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>276.8320453490574</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>69.10290646389855</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>22.46588287219606</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>80.67622280824473</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>67.62960647440789</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>189.0152132557092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>21.2122437417665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>154.9155041809599</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>89.84971271248597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.7503859381839</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.82493908977983</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>80.27375167670505</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.782332673858282</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>203.1464755155368</v>
@@ -2779,7 +2779,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.2919115981254</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>23.59519112591663</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>44.25903449440879</v>
       </c>
       <c r="E31" t="n">
         <v>128.0328771037168</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
         <v>203.1464755155368</v>
@@ -3016,7 +3016,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>297.1410016413669</v>
       </c>
       <c r="D35" t="n">
-        <v>286.551151491041</v>
+        <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
         <v>313.7984799426212</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.1060485264126</v>
       </c>
     </row>
     <row r="36">
@@ -3521,7 +3521,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310015</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201602</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404931</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
         <v>281.1090785877724</v>
@@ -3569,7 +3569,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310013</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
@@ -3797,7 +3797,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310005</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877716</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="C2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="D2" t="n">
-        <v>586.9299687188372</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="E2" t="n">
-        <v>586.9299687188372</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="F2" t="n">
-        <v>579.9844679696338</v>
+        <v>523.4729093258053</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4343,7 +4343,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029593</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="V2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="W2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="X2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.8759421555599</v>
+        <v>708.3031543305424</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.4950354468728</v>
+        <v>443.4628813652835</v>
       </c>
       <c r="C3" t="n">
-        <v>259.0420061657458</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="D3" t="n">
-        <v>248.4271328501548</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
         <v>109.772397078701</v>
@@ -4407,25 +4407,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>641.2451212288495</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4443,16 +4443,16 @@
         <v>876.4074424435694</v>
       </c>
       <c r="V3" t="n">
-        <v>641.2553342118267</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="W3" t="n">
-        <v>641.2553342118267</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="X3" t="n">
-        <v>641.2553342118267</v>
+        <v>668.5559422380366</v>
       </c>
       <c r="Y3" t="n">
-        <v>433.4950354468728</v>
+        <v>460.7956434730826</v>
       </c>
     </row>
     <row r="4">
@@ -4507,13 +4507,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.3084793424303</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T4" t="n">
         <v>22.09252109618843</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.38074717153633</v>
+        <v>394.7073230998527</v>
       </c>
       <c r="C5" t="n">
-        <v>49.38074717153633</v>
+        <v>49.3807471715364</v>
       </c>
       <c r="D5" t="n">
-        <v>49.38074717153633</v>
+        <v>49.3807471715364</v>
       </c>
       <c r="E5" t="n">
-        <v>49.38074717153633</v>
+        <v>49.3807471715364</v>
       </c>
       <c r="F5" t="n">
-        <v>42.43524642233285</v>
+        <v>42.43524642233293</v>
       </c>
       <c r="G5" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H5" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488081946</v>
+        <v>46.45889488081991</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943448</v>
+        <v>195.8431816943457</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909765</v>
+        <v>433.4442264909779</v>
       </c>
       <c r="M5" t="n">
-        <v>714.427715120304</v>
+        <v>714.4277151203061</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090342</v>
+        <v>985.325812809037</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860203</v>
+        <v>1195.939566860206</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313927</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="S5" t="n">
-        <v>1217.609866335553</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="T5" t="n">
-        <v>993.8886425938674</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="U5" t="n">
-        <v>740.033899028167</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="V5" t="n">
-        <v>740.033899028167</v>
+        <v>1036.430353332562</v>
       </c>
       <c r="W5" t="n">
-        <v>394.7073230998516</v>
+        <v>1036.430353332562</v>
       </c>
       <c r="X5" t="n">
-        <v>49.38074717153633</v>
+        <v>691.1037774042456</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.38074717153633</v>
+        <v>691.1037774042456</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.5385833339721</v>
+        <v>165.8816906653778</v>
       </c>
       <c r="C6" t="n">
-        <v>326.5385833339721</v>
+        <v>165.8816906653778</v>
       </c>
       <c r="D6" t="n">
-        <v>326.5385833339721</v>
+        <v>165.8816906653778</v>
       </c>
       <c r="E6" t="n">
-        <v>326.5385833339721</v>
+        <v>165.8816906653778</v>
       </c>
       <c r="F6" t="n">
-        <v>180.0040253608571</v>
+        <v>165.8816906653778</v>
       </c>
       <c r="G6" t="n">
-        <v>41.47219950900188</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="K6" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L6" t="n">
-        <v>299.6613442303246</v>
+        <v>299.6613442303251</v>
       </c>
       <c r="M6" t="n">
-        <v>638.1159212976664</v>
+        <v>513.9929342701172</v>
       </c>
       <c r="N6" t="n">
-        <v>976.5704983650082</v>
+        <v>852.44751133746</v>
       </c>
       <c r="O6" t="n">
-        <v>1271.728764885753</v>
+        <v>1147.605777858205</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676129</v>
+        <v>1278.679140394075</v>
       </c>
       <c r="S6" t="n">
-        <v>1197.772225775993</v>
+        <v>1278.679140394075</v>
       </c>
       <c r="T6" t="n">
-        <v>996.3877390326604</v>
+        <v>1077.294653650742</v>
       </c>
       <c r="U6" t="n">
-        <v>996.3877390326604</v>
+        <v>849.0841274638111</v>
       </c>
       <c r="V6" t="n">
-        <v>996.3877390326604</v>
+        <v>613.9320192320683</v>
       </c>
       <c r="W6" t="n">
-        <v>742.1503823044588</v>
+        <v>541.8573264503998</v>
       </c>
       <c r="X6" t="n">
-        <v>534.298882098926</v>
+        <v>541.8573264503998</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.5385833339721</v>
+        <v>334.0970276854459</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.46115954088248</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088248</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088248</v>
+        <v>53.86140513513834</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088248</v>
+        <v>30.46115954088237</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352257</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953502</v>
+        <v>78.97414292953533</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394781</v>
+        <v>143.7938290394787</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147019</v>
+        <v>212.5068643147027</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039145</v>
+        <v>259.9581784039156</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461735</v>
+        <v>277.0402928461747</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461735</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="W7" t="n">
-        <v>212.1096243711222</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="X7" t="n">
-        <v>212.1096243711222</v>
+        <v>203.9780445474741</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.1096243711222</v>
+        <v>203.9780445474741</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1701.775251950351</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.775251950351</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>1701.775251950351</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>1315.986999352107</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>905.0010945624995</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>487.0372864606863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014473</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.5354894428045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148976</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148976</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148976</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>658.3280685863347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>437.5354894428045</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.4452354807079</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1276.303449491438</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>986.8862794544777</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>986.8862794544777</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.0937003109476</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,13 +5312,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.2416896507656</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404656</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404656</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W16" t="n">
-        <v>954.814612315055</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>763.8901544810053</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.8901544810053</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,43 +5498,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.2416896507652</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>268.7602397026888</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>118.643600290353</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>118.643600290353</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>118.643600290353</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1053.307324517966</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W19" t="n">
-        <v>763.890154481005</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>763.890154481005</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>763.890154481005</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.0396462065432</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.158304963777</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045606</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X22" t="n">
-        <v>503.0396462065432</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.0396462065432</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,22 +5990,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6084,7 +6084,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>225.5200838644059</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="C25" t="n">
-        <v>225.5200838644059</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="D25" t="n">
-        <v>225.5200838644059</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="E25" t="n">
-        <v>225.5200838644059</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>190.1647277445479</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968148</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572806</v>
+        <v>987.5796692572794</v>
       </c>
       <c r="V25" t="n">
-        <v>987.5796692572806</v>
+        <v>751.4821361451828</v>
       </c>
       <c r="W25" t="n">
-        <v>716.7494543141103</v>
+        <v>480.6519212020124</v>
       </c>
       <c r="X25" t="n">
-        <v>507.3468585098832</v>
+        <v>271.2493253977854</v>
       </c>
       <c r="Y25" t="n">
-        <v>305.1412344601434</v>
+        <v>190.1647277445479</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514074</v>
@@ -6309,13 +6309,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.5663192944025</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949932</v>
+        <v>1439.454407940589</v>
       </c>
       <c r="U28" t="n">
-        <v>987.5796692572803</v>
+        <v>1168.912724247938</v>
       </c>
       <c r="V28" t="n">
-        <v>751.4821361451836</v>
+        <v>932.8151911358409</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020134</v>
+        <v>661.9849761926706</v>
       </c>
       <c r="X28" t="n">
-        <v>271.2493253977863</v>
+        <v>452.5823803884435</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>250.3767563387038</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,52 +6458,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.376756338704</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="C31" t="n">
-        <v>226.5432299488887</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="D31" t="n">
         <v>226.5432299488887</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
@@ -6646,25 +6646,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T31" t="n">
-        <v>1439.454407940589</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U31" t="n">
-        <v>1168.912724247938</v>
+        <v>987.5796692572803</v>
       </c>
       <c r="V31" t="n">
-        <v>932.8151911358412</v>
+        <v>751.4821361451836</v>
       </c>
       <c r="W31" t="n">
-        <v>661.9849761926708</v>
+        <v>480.6519212020134</v>
       </c>
       <c r="X31" t="n">
-        <v>452.5823803884438</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="Y31" t="n">
-        <v>250.376756338704</v>
+        <v>271.2493253977864</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,13 +6783,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6841,13 +6841,13 @@
         <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
         <v>772.288612901031</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
         <v>1335.92533899506</v>
@@ -6932,55 +6932,55 @@
         <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>700.8111679228793</v>
+        <v>868.2168169432325</v>
       </c>
       <c r="L35" t="n">
-        <v>1402.415323966678</v>
+        <v>1415.511460712184</v>
       </c>
       <c r="M35" t="n">
-        <v>1826.996552080633</v>
+        <v>1767.76941627417</v>
       </c>
       <c r="N35" t="n">
-        <v>2189.568218016799</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040995</v>
+        <v>2836.364143234532</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>266.7104780195274</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>513.4756059259914</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.843752318453</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>2030.810682109833</v>
+        <v>1537.309076499443</v>
       </c>
       <c r="O36" t="n">
-        <v>2310.35074732853</v>
+        <v>1816.84914171814</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.373228110739</v>
+        <v>2337.149763453887</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H37" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
         <v>155.9829803443641</v>
@@ -7099,7 +7099,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7129,16 +7129,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7166,46 @@
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>547.3128584977793</v>
+        <v>547.3128584977794</v>
       </c>
       <c r="L38" t="n">
         <v>1248.917014541577</v>
       </c>
       <c r="M38" t="n">
-        <v>1826.996552080633</v>
+        <v>2046.193368261468</v>
       </c>
       <c r="N38" t="n">
-        <v>2189.568218016799</v>
+        <v>2841.738489365498</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040995</v>
+        <v>3170.769370939576</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V38" t="n">
         <v>3153.206593873103</v>
@@ -7248,22 +7248,22 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J39" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>266.7104780195274</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L39" t="n">
-        <v>513.4756059259914</v>
+        <v>880.6075477764161</v>
       </c>
       <c r="M39" t="n">
-        <v>1281.843752318453</v>
+        <v>1648.975694168877</v>
       </c>
       <c r="N39" t="n">
-        <v>2030.810682109833</v>
+        <v>1978.83832183291</v>
       </c>
       <c r="O39" t="n">
         <v>2310.35074732853</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026566</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147907</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D40" t="n">
-        <v>456.980224042496</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E40" t="n">
-        <v>377.887221500144</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422747</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021364</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173199</v>
+        <v>373.61895581732</v>
       </c>
       <c r="L40" t="n">
         <v>688.7815720567935</v>
@@ -7366,16 +7366,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963442</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928552</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
@@ -7400,49 +7400,49 @@
         <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977793</v>
+        <v>547.3128584977794</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4324121366315</v>
+        <v>1248.917014541577</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.708765856522</v>
+        <v>2046.193368261468</v>
       </c>
       <c r="N41" t="n">
-        <v>2428.253886960553</v>
+        <v>2841.738489365498</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040995</v>
+        <v>3170.769370939576</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296798</v>
+        <v>3460.491244296799</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
         <v>3153.206593873103</v>
@@ -7485,28 +7485,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>1185.651406307348</v>
+        <v>1078.349780212301</v>
       </c>
       <c r="M42" t="n">
-        <v>1492.971539587309</v>
+        <v>1385.669913492262</v>
       </c>
       <c r="N42" t="n">
-        <v>1822.834167251342</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.374232470039</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026564</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147906</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424959</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001439</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422746</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J43" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567937</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R43" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S43" t="n">
         <v>1844.09853413394</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963486</v>
       </c>
       <c r="U43" t="n">
         <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C44" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E44" t="n">
         <v>1018.957177436856</v>
@@ -7640,49 +7640,49 @@
         <v>329.4856801922889</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432324</v>
+        <v>868.2168169432325</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.82097298703</v>
+        <v>1474.738596518647</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1826.996552080634</v>
       </c>
       <c r="N44" t="n">
-        <v>2507.333261660453</v>
+        <v>2189.5682180168</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234531</v>
+        <v>2895.591279040996</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490334</v>
+        <v>3460.491244296799</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W44" t="n">
         <v>2869.25802964303</v>
@@ -7722,19 +7722,19 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J45" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195274</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L45" t="n">
-        <v>513.4756059259914</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M45" t="n">
-        <v>1281.843752318453</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N45" t="n">
         <v>2030.810682109833</v>
@@ -7795,22 +7795,22 @@
         <v>299.8173650422754</v>
       </c>
       <c r="G46" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J46" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173194</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7825,7 +7825,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>361.0244890520116</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>263.6455160524018</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.224542698876</v>
+        <v>108.2245426988758</v>
       </c>
       <c r="K6" t="n">
-        <v>106.0287138250089</v>
+        <v>106.0287138250086</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856901</v>
+        <v>308.712857712407</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209639</v>
+        <v>421.9761166209644</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>193.0860140666527</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070149</v>
+        <v>114.8336753070147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>261.7930203334333</v>
       </c>
       <c r="M35" t="n">
-        <v>73.05381065855443</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165123</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>169.2863157167188</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>228.1026080576455</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>256.1560302469622</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>5.891030169484367</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165123</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305323</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>139.7035459660244</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>43.84103958705788</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776753</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>321.6184100369318</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>224.9319870457275</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484367</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229588</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165123</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.6717604516319</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>137.90843054385</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>184.5080368494201</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>36.69444213332798</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.2813247216111</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>97.22213914286812</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.39710838614187</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>87.48696646039389</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.60595554930507</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141961</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094042</v>
+        <v>91.56326686094046</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>119.9098161325374</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>158.6485619652266</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
@@ -24610,7 +24610,7 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G28" t="n">
         <v>148.0924829205252</v>
@@ -24619,7 +24619,7 @@
         <v>130.5127428246837</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141961</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>91.56326686094042</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.89165621111702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>125.2505444298588</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>85.95535298095118</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G31" t="n">
         <v>148.0924829205252</v>
@@ -24856,7 +24856,7 @@
         <v>130.5127428246837</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141961</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>91.56326686094042</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1294862.326835622</v>
+        <v>1294862.326835623</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="D2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="D2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
         <v>175963.076881969</v>
@@ -26329,7 +26329,7 @@
         <v>175963.076881969</v>
       </c>
       <c r="H2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="I2" t="n">
         <v>178332.0385231033</v>
@@ -26338,13 +26338,13 @@
         <v>178332.0385231033</v>
       </c>
       <c r="K2" t="n">
-        <v>178332.0385231034</v>
+        <v>178332.0385231032</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194637</v>
@@ -26366,13 +26366,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.7522379461</v>
+        <v>72744.75223794725</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936413</v>
+        <v>348321.8962936403</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428191</v>
+        <v>14720.86843428187</v>
       </c>
       <c r="J3" t="n">
         <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303566</v>
+        <v>16913.40047303586</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741634</v>
+        <v>123915.6258741632</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762899</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.8684342819</v>
+        <v>14720.86843428187</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211192</v>
+        <v>296337.3092211188</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456444</v>
+        <v>49616.29565456441</v>
       </c>
       <c r="J4" t="n">
         <v>49616.29565456441</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456443</v>
+        <v>49616.29565456448</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448604</v>
+        <v>65980.20872448606</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766785</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049157</v>
+        <v>56410.20653049165</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-309667.2911810417</v>
       </c>
       <c r="C6" t="n">
-        <v>-240757.8697700932</v>
+        <v>-240757.8697700939</v>
       </c>
       <c r="D6" t="n">
-        <v>-438653.172530017</v>
+        <v>-438653.1725300157</v>
       </c>
       <c r="E6" t="n">
-        <v>-484745.7070268093</v>
+        <v>-484843.1661527814</v>
       </c>
       <c r="F6" t="n">
-        <v>40414.32945008685</v>
+        <v>40316.87032411469</v>
       </c>
       <c r="G6" t="n">
-        <v>40414.32945008681</v>
+        <v>40316.87032411463</v>
       </c>
       <c r="H6" t="n">
-        <v>40414.32945008679</v>
+        <v>40316.87032411457</v>
       </c>
       <c r="I6" t="n">
-        <v>20460.5876250383</v>
+        <v>20389.45029507874</v>
       </c>
       <c r="J6" t="n">
-        <v>-37073.2388118188</v>
+        <v>-37144.37614177839</v>
       </c>
       <c r="K6" t="n">
-        <v>18268.05558628459</v>
+        <v>18196.91825632464</v>
       </c>
       <c r="L6" t="n">
-        <v>-102876.5421992107</v>
+        <v>-102876.5421992106</v>
       </c>
       <c r="M6" t="n">
-        <v>-65981.72188164493</v>
+        <v>-65981.72188164486</v>
       </c>
       <c r="N6" t="n">
-        <v>-11527.50097829784</v>
+        <v>-11527.50097829774</v>
       </c>
       <c r="O6" t="n">
-        <v>3193.367455984349</v>
+        <v>3193.367455984247</v>
       </c>
       <c r="P6" t="n">
-        <v>3193.367455984087</v>
+        <v>3193.367455984073</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J2" t="n">
         <v>18.40108554285239</v>
@@ -26713,16 +26713,16 @@
         <v>18.40108554285239</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,10 +26738,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020261</v>
+        <v>91.59216845020352</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690322</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513754</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678825</v>
+        <v>49.73080458678826</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107731</v>
+        <v>56.57090773107822</v>
       </c>
       <c r="D3" t="n">
-        <v>286.151495766884</v>
+        <v>286.1514957668832</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667675</v>
+        <v>65.71679646667775</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855233</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667675</v>
+        <v>65.71679646667752</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855236</v>
+        <v>332.4139625855229</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968194</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667675</v>
+        <v>65.71679646667775</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855233</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>223.8941031870217</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>139.005434824964</v>
-      </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>61.87643319194542</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>297.2014874692095</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>149.3737491631462</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>136.9363409822037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>80.19643759900805</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>89.30135190213161</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>23.39958160197438</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470836</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656319</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
-        <v>52.2449499395924</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>7.367658548380859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>27.85779050943688</v>
+        <v>27.85779050943586</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.35163519997811</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373498</v>
+        <v>82.61362792373491</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923682</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>180.3410373070678</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475105</v>
+        <v>58.51568625643752</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571379</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>169.8669181779121</v>
+        <v>169.866918177912</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301028</v>
+        <v>221.1382015301027</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>222.2416365462902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>218.0097051937371</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>47.09072741529974</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>156.6067489251386</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="26">
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964199</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
         <v>68.13189012964065</v>
@@ -30052,7 +30052,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964102</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964077</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964136</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X44" t="n">
         <v>68.13189012964067</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128745</v>
+        <v>0.3682097224128782</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660852</v>
+        <v>3.77092781966089</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332236</v>
+        <v>14.1954053233225</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992763974</v>
+        <v>31.25133992764005</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737672</v>
+        <v>46.83765747737719</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576966974</v>
+        <v>58.10625576967032</v>
       </c>
       <c r="M5" t="n">
-        <v>64.6544054206297</v>
+        <v>64.65440542063034</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443528</v>
+        <v>65.70058129443593</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719226</v>
+        <v>62.03919586719287</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512441</v>
+        <v>52.94901834512494</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121333</v>
+        <v>39.76250766121372</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551775</v>
+        <v>23.12955397551798</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483387</v>
+        <v>8.39057904948347</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862359</v>
+        <v>1.611838059862375</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779302995</v>
+        <v>0.02945677779303025</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740207</v>
+        <v>0.1970095698740227</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993832</v>
+        <v>1.902697687993851</v>
       </c>
       <c r="I6" t="n">
-        <v>6.7830049276801</v>
+        <v>6.783004927680167</v>
       </c>
       <c r="J6" t="n">
-        <v>18.6130839677907</v>
+        <v>18.61308396779089</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935009</v>
+        <v>31.81272514935041</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742718</v>
+        <v>42.7761348974276</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536041</v>
+        <v>49.91773180536091</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140155</v>
+        <v>51.23890563140206</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998246</v>
+        <v>46.87358831998293</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532945</v>
+        <v>37.62018707532982</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900657</v>
+        <v>25.14809877900683</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340631</v>
+        <v>12.23187487340643</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703847</v>
+        <v>3.659366352703883</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220393</v>
+        <v>0.7940868189220472</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276453</v>
+        <v>0.01296115591276465</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020047</v>
+        <v>0.1651662054020063</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119643</v>
+        <v>1.468477717119657</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725743</v>
+        <v>4.966998249725791</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192173</v>
+        <v>11.67725072192185</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579654</v>
+        <v>19.18931004579673</v>
       </c>
       <c r="L7" t="n">
-        <v>24.5557102104035</v>
+        <v>24.55571021040375</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224333</v>
+        <v>25.89055345224359</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938133</v>
+        <v>25.27493395938158</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809427</v>
+        <v>23.3454923780945</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789336</v>
+        <v>19.97610178789356</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598059</v>
+        <v>13.83041743598073</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257408</v>
+        <v>7.426473199257482</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869481</v>
+        <v>2.878396506869509</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540198</v>
+        <v>0.7057101503540268</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200266</v>
+        <v>0.009009065749200355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315784</v>
@@ -34784,10 +34784,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>237.9770422219166</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302722</v>
+        <v>19.30205057302753</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035609</v>
+        <v>150.8932190035614</v>
       </c>
       <c r="L5" t="n">
-        <v>240.001055350133</v>
+        <v>240.0010553501335</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861895</v>
+        <v>283.8217056861901</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098285</v>
+        <v>273.6344421098292</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082509</v>
+        <v>212.7411657082515</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613375</v>
+        <v>143.5147307613381</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666853</v>
+        <v>29.77180844666892</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210122</v>
+        <v>275.0621004210126</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690322</v>
+        <v>216.4965555957496</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690322</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522675</v>
+        <v>298.139663152268</v>
       </c>
       <c r="P6" t="n">
-        <v>96.73179372765192</v>
+        <v>222.1085483009367</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071964</v>
+        <v>52.14573547071988</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408391</v>
+        <v>65.47443041408417</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633860992</v>
+        <v>69.40710633861018</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213394</v>
+        <v>47.93062029213418</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278685</v>
+        <v>17.25466105278705</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,7 +35507,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36376,7 +36376,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841786</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M25" t="n">
         <v>292.7109267218249</v>
       </c>
       <c r="N25" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O25" t="n">
         <v>254.6384370634552</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472708</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
@@ -36686,7 +36686,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472714</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472714</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>552.82287249389</v>
       </c>
       <c r="M35" t="n">
-        <v>428.8699273878335</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N35" t="n">
         <v>366.2340059961277</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145252</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017929</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,19 +37549,19 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>583.9187247869246</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>504.9633475863919</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903001</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145252</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541613</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,7 +37783,7 @@
         <v>204.5443435591682</v>
       </c>
       <c r="L41" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37792,10 +37792,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>472.0579717984263</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>292.6483569264875</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336995</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,16 +38020,16 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>612.6482621973886</v>
       </c>
       <c r="M44" t="n">
         <v>355.8161167292791</v>
       </c>
       <c r="N44" t="n">
-        <v>591.1659930418551</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>720.124745373425</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145252</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
